--- a/data/pca/factorExposure/factorExposure_2009-07-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01660485637281143</v>
+        <v>0.01651686273024208</v>
       </c>
       <c r="C2">
-        <v>-0.0013976691450969</v>
+        <v>-0.0009459298133070301</v>
       </c>
       <c r="D2">
-        <v>-0.007925233086722173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009346936315649973</v>
+      </c>
+      <c r="E2">
+        <v>-0.001282508744146166</v>
+      </c>
+      <c r="F2">
+        <v>0.01225742636726022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09091676456981475</v>
+        <v>0.09159788410128439</v>
       </c>
       <c r="C4">
-        <v>-0.01956589378653843</v>
+        <v>-0.01461702987613867</v>
       </c>
       <c r="D4">
-        <v>-0.07401613147572397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08295589330630562</v>
+      </c>
+      <c r="E4">
+        <v>-0.02848131562856516</v>
+      </c>
+      <c r="F4">
+        <v>-0.03153012753896279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1528704476678024</v>
+        <v>0.1609729540898198</v>
       </c>
       <c r="C6">
-        <v>-0.02895125396453155</v>
+        <v>-0.02805179662873392</v>
       </c>
       <c r="D6">
-        <v>0.03302099542817809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02702585170466851</v>
+      </c>
+      <c r="E6">
+        <v>-0.008911646002133631</v>
+      </c>
+      <c r="F6">
+        <v>-0.04209614615501045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06152480286494216</v>
+        <v>0.06260652427227556</v>
       </c>
       <c r="C7">
-        <v>-0.002163951196873285</v>
+        <v>0.001575003045390885</v>
       </c>
       <c r="D7">
-        <v>-0.0458211754806836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05251789430894126</v>
+      </c>
+      <c r="E7">
+        <v>-0.01320667443401091</v>
+      </c>
+      <c r="F7">
+        <v>-0.04889733241788619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06219603944848506</v>
+        <v>0.05777809187904852</v>
       </c>
       <c r="C8">
-        <v>0.01065072640174542</v>
+        <v>0.01245451516036515</v>
       </c>
       <c r="D8">
-        <v>-0.02558969302578086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03059034750567429</v>
+      </c>
+      <c r="E8">
+        <v>-0.01706183449596595</v>
+      </c>
+      <c r="F8">
+        <v>0.02620053749420349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07059706987330716</v>
+        <v>0.07075224131161623</v>
       </c>
       <c r="C9">
-        <v>-0.016415574952694</v>
+        <v>-0.01037405315044353</v>
       </c>
       <c r="D9">
-        <v>-0.07410454665431494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08611105344759418</v>
+      </c>
+      <c r="E9">
+        <v>-0.02496791097162115</v>
+      </c>
+      <c r="F9">
+        <v>-0.04841708436643347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08548780490653483</v>
+        <v>0.08884368173626545</v>
       </c>
       <c r="C10">
-        <v>-0.0144458053894772</v>
+        <v>-0.02138973480591741</v>
       </c>
       <c r="D10">
-        <v>0.1667402882038218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1603255418133858</v>
+      </c>
+      <c r="E10">
+        <v>0.0327369846782572</v>
+      </c>
+      <c r="F10">
+        <v>0.05756475190116261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09138037353379758</v>
+        <v>0.08785907298737076</v>
       </c>
       <c r="C11">
-        <v>-0.01730112914546334</v>
+        <v>-0.01122165303209561</v>
       </c>
       <c r="D11">
-        <v>-0.1060963688207695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1177623552653007</v>
+      </c>
+      <c r="E11">
+        <v>-0.04784376858815647</v>
+      </c>
+      <c r="F11">
+        <v>-0.02292845514605239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09595045848882312</v>
+        <v>0.09041359891958027</v>
       </c>
       <c r="C12">
-        <v>-0.01496411255261682</v>
+        <v>-0.00830541866814883</v>
       </c>
       <c r="D12">
-        <v>-0.1105003923510073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320349289343156</v>
+      </c>
+      <c r="E12">
+        <v>-0.04683444225508146</v>
+      </c>
+      <c r="F12">
+        <v>-0.02941507164398849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0437664524238054</v>
+        <v>0.04351443514203186</v>
       </c>
       <c r="C13">
-        <v>-0.005610637389434024</v>
+        <v>-0.0024076777722386</v>
       </c>
       <c r="D13">
-        <v>-0.03750677851066529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05337119097966631</v>
+      </c>
+      <c r="E13">
+        <v>0.0006412629119643793</v>
+      </c>
+      <c r="F13">
+        <v>-0.003767988602751805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01844129798233263</v>
+        <v>0.02321654828996661</v>
       </c>
       <c r="C14">
-        <v>-0.01488149355703778</v>
+        <v>-0.01357324191952428</v>
       </c>
       <c r="D14">
-        <v>-0.02691241418247566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03309055054420856</v>
+      </c>
+      <c r="E14">
+        <v>-0.01832099916736222</v>
+      </c>
+      <c r="F14">
+        <v>-0.01305646376944878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03326944066972973</v>
+        <v>0.0332904154302725</v>
       </c>
       <c r="C15">
-        <v>-0.007322057558932874</v>
+        <v>-0.005190899774857621</v>
       </c>
       <c r="D15">
-        <v>-0.04023817876705453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0463681363376495</v>
+      </c>
+      <c r="E15">
+        <v>-0.007704866153615976</v>
+      </c>
+      <c r="F15">
+        <v>-0.02937849156828249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07527264715000252</v>
+        <v>0.07306758640592745</v>
       </c>
       <c r="C16">
-        <v>-0.007670926714917615</v>
+        <v>-0.001495685448882711</v>
       </c>
       <c r="D16">
-        <v>-0.1084324358758065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284218367447834</v>
+      </c>
+      <c r="E16">
+        <v>-0.06204217733590379</v>
+      </c>
+      <c r="F16">
+        <v>-0.02548885742912173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000290154670545597</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.000274289000903869</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001470976039180593</v>
+      </c>
+      <c r="E17">
+        <v>-0.001072997511168159</v>
+      </c>
+      <c r="F17">
+        <v>0.002380665309647996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01854657906998756</v>
+        <v>0.03947216333438809</v>
       </c>
       <c r="C18">
-        <v>0.003192412164092149</v>
+        <v>0.002984911089712193</v>
       </c>
       <c r="D18">
-        <v>-0.02685637856722901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01546708897145898</v>
+      </c>
+      <c r="E18">
+        <v>0.007711217566732876</v>
+      </c>
+      <c r="F18">
+        <v>0.008766693855991542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06378532173335685</v>
+        <v>0.0624935293933588</v>
       </c>
       <c r="C20">
-        <v>-0.005660773880715522</v>
+        <v>-0.0008391937333520998</v>
       </c>
       <c r="D20">
-        <v>-0.06527708576904527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0785087747355806</v>
+      </c>
+      <c r="E20">
+        <v>-0.05740514686223341</v>
+      </c>
+      <c r="F20">
+        <v>-0.02887563250335631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03834394069985742</v>
+        <v>0.04156081028981105</v>
       </c>
       <c r="C21">
-        <v>-0.0096606886648452</v>
+        <v>-0.006604609474754734</v>
       </c>
       <c r="D21">
-        <v>-0.0357483768610437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03761052441194045</v>
+      </c>
+      <c r="E21">
+        <v>0.0009104388414335206</v>
+      </c>
+      <c r="F21">
+        <v>0.02651744282386684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0413692904302836</v>
+        <v>0.04469376393019924</v>
       </c>
       <c r="C22">
-        <v>-0.001847822772957152</v>
+        <v>-0.0007741358741617738</v>
       </c>
       <c r="D22">
-        <v>0.002729731441136101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.005922474181162978</v>
+      </c>
+      <c r="E22">
+        <v>-0.03613643177812797</v>
+      </c>
+      <c r="F22">
+        <v>0.05060927388885693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0413321841520776</v>
+        <v>0.04466970368400831</v>
       </c>
       <c r="C23">
-        <v>-0.001837437271975157</v>
+        <v>-0.0007651990756082023</v>
       </c>
       <c r="D23">
-        <v>0.002706886530152392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.005936895646162441</v>
+      </c>
+      <c r="E23">
+        <v>-0.03631926427367835</v>
+      </c>
+      <c r="F23">
+        <v>0.05058199990942475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08203750160492913</v>
+        <v>0.07884665792925327</v>
       </c>
       <c r="C24">
-        <v>-0.008011880381126657</v>
+        <v>-0.002165674469325433</v>
       </c>
       <c r="D24">
-        <v>-0.1109248760730972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206641563340664</v>
+      </c>
+      <c r="E24">
+        <v>-0.04973432275372676</v>
+      </c>
+      <c r="F24">
+        <v>-0.02814126161095266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08765512189091522</v>
+        <v>0.08404045049379891</v>
       </c>
       <c r="C25">
-        <v>-0.01075663814762963</v>
+        <v>-0.004888697347315529</v>
       </c>
       <c r="D25">
-        <v>-0.09638930279524299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098671755940692</v>
+      </c>
+      <c r="E25">
+        <v>-0.0330027624647382</v>
+      </c>
+      <c r="F25">
+        <v>-0.02595443033412532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05806458196715177</v>
+        <v>0.0596785181049963</v>
       </c>
       <c r="C26">
-        <v>-0.01732005504286001</v>
+        <v>-0.01445437432286973</v>
       </c>
       <c r="D26">
-        <v>-0.0242508144338393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0430717940299548</v>
+      </c>
+      <c r="E26">
+        <v>-0.0295772658698573</v>
+      </c>
+      <c r="F26">
+        <v>0.009002830618213149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.133695822237662</v>
+        <v>0.141952565165445</v>
       </c>
       <c r="C28">
-        <v>-0.0132254870282041</v>
+        <v>-0.02287576182226442</v>
       </c>
       <c r="D28">
-        <v>0.2690058383440852</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609664455581106</v>
+      </c>
+      <c r="E28">
+        <v>0.06856517686437003</v>
+      </c>
+      <c r="F28">
+        <v>-0.005276112890501079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02522581713756102</v>
+        <v>0.02859431872283175</v>
       </c>
       <c r="C29">
-        <v>-0.009653499543027006</v>
+        <v>-0.008755490303561183</v>
       </c>
       <c r="D29">
-        <v>-0.02523721010040399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03098127276119174</v>
+      </c>
+      <c r="E29">
+        <v>-0.01318417648077981</v>
+      </c>
+      <c r="F29">
+        <v>0.01296964702284524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06301083202613791</v>
+        <v>0.059098089357176</v>
       </c>
       <c r="C30">
-        <v>-0.009469589290734506</v>
+        <v>-0.002639064557330242</v>
       </c>
       <c r="D30">
-        <v>-0.07206916053126332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08732797134981331</v>
+      </c>
+      <c r="E30">
+        <v>-0.01410896059777839</v>
+      </c>
+      <c r="F30">
+        <v>-0.0786817952605037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05013525365631067</v>
+        <v>0.05115027657585691</v>
       </c>
       <c r="C31">
-        <v>-0.0171584379319612</v>
+        <v>-0.01603385245854587</v>
       </c>
       <c r="D31">
-        <v>-0.02227977200886437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0249570035428359</v>
+      </c>
+      <c r="E31">
+        <v>-0.02901018681245432</v>
+      </c>
+      <c r="F31">
+        <v>0.0008263921058522284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04691466905691472</v>
+        <v>0.0510865716210582</v>
       </c>
       <c r="C32">
-        <v>-0.002197665240554589</v>
+        <v>0.001592294350393223</v>
       </c>
       <c r="D32">
-        <v>-0.02379644414021024</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03441294129460196</v>
+      </c>
+      <c r="E32">
+        <v>-0.03230090833208975</v>
+      </c>
+      <c r="F32">
+        <v>-0.003242125664726755</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09120333239322592</v>
+        <v>0.08961098811515436</v>
       </c>
       <c r="C33">
-        <v>-0.01352200435764506</v>
+        <v>-0.006936030500370295</v>
       </c>
       <c r="D33">
-        <v>-0.08490593247929082</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.103362731394928</v>
+      </c>
+      <c r="E33">
+        <v>-0.04686112115962478</v>
+      </c>
+      <c r="F33">
+        <v>-0.04260313833740946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06920737524949851</v>
+        <v>0.06758418237888103</v>
       </c>
       <c r="C34">
-        <v>-0.01549293827746263</v>
+        <v>-0.01038320667077401</v>
       </c>
       <c r="D34">
-        <v>-0.09119287476487836</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1095728113340705</v>
+      </c>
+      <c r="E34">
+        <v>-0.03604280791102662</v>
+      </c>
+      <c r="F34">
+        <v>-0.03333188703893155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02445124629093045</v>
+        <v>0.02656923417676776</v>
       </c>
       <c r="C35">
-        <v>-0.00326922022076695</v>
+        <v>-0.003069887031882222</v>
       </c>
       <c r="D35">
-        <v>-0.007222794375171939</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01239427651948572</v>
+      </c>
+      <c r="E35">
+        <v>-0.01314269849064091</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007082166493420407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02581543786954981</v>
+        <v>0.02778375755110071</v>
       </c>
       <c r="C36">
-        <v>-0.007707831741012346</v>
+        <v>-0.006927305751713382</v>
       </c>
       <c r="D36">
-        <v>-0.03867768963610257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03911156826732316</v>
+      </c>
+      <c r="E36">
+        <v>-0.01704059819874717</v>
+      </c>
+      <c r="F36">
+        <v>-0.01366804793567664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001030899361420448</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007747984636429215</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002583128774539147</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001493647079950081</v>
+      </c>
+      <c r="F37">
+        <v>0.001859836635993166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1132208407010641</v>
+        <v>0.1021209248436823</v>
       </c>
       <c r="C39">
-        <v>-0.02347304857427327</v>
+        <v>-0.01618478530739816</v>
       </c>
       <c r="D39">
-        <v>-0.1462660321341087</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1514839509210918</v>
+      </c>
+      <c r="E39">
+        <v>-0.06008808566402408</v>
+      </c>
+      <c r="F39">
+        <v>-0.02035057121728112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03843199291486707</v>
+        <v>0.04326326216844862</v>
       </c>
       <c r="C40">
-        <v>-0.009213111553352974</v>
+        <v>-0.007658792219988306</v>
       </c>
       <c r="D40">
-        <v>-0.01992741814535373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0324894141578691</v>
+      </c>
+      <c r="E40">
+        <v>-0.002028268355606316</v>
+      </c>
+      <c r="F40">
+        <v>0.0161139149971293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02528158841271279</v>
+        <v>0.02782192339849218</v>
       </c>
       <c r="C41">
-        <v>-0.007404982930733441</v>
+        <v>-0.006926934440319575</v>
       </c>
       <c r="D41">
-        <v>-0.009449481453700939</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01078434121943567</v>
+      </c>
+      <c r="E41">
+        <v>-0.01228068139045101</v>
+      </c>
+      <c r="F41">
+        <v>0.007730879136627638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04219289531984127</v>
+        <v>0.04041936565164865</v>
       </c>
       <c r="C43">
-        <v>-0.008360510375829541</v>
+        <v>-0.007676042012150412</v>
       </c>
       <c r="D43">
-        <v>-0.01636737339102714</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01949125968965717</v>
+      </c>
+      <c r="E43">
+        <v>-0.02570176926247113</v>
+      </c>
+      <c r="F43">
+        <v>0.01649214095585377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07044207238069244</v>
+        <v>0.07917411508102706</v>
       </c>
       <c r="C44">
-        <v>-0.02517845105534933</v>
+        <v>-0.01954704009760825</v>
       </c>
       <c r="D44">
-        <v>-0.09283535951312286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09620382994772775</v>
+      </c>
+      <c r="E44">
+        <v>-0.06279711165801656</v>
+      </c>
+      <c r="F44">
+        <v>-0.1673345956159427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02149533401751312</v>
+        <v>0.0246081875174228</v>
       </c>
       <c r="C46">
-        <v>-0.004307805117670952</v>
+        <v>-0.003696782011071567</v>
       </c>
       <c r="D46">
-        <v>-0.005874577613411277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01317872568711154</v>
+      </c>
+      <c r="E46">
+        <v>-0.02732744730845967</v>
+      </c>
+      <c r="F46">
+        <v>0.005628241407172201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05256179229950476</v>
+        <v>0.05234448224781692</v>
       </c>
       <c r="C47">
-        <v>-0.005011267746664515</v>
+        <v>-0.004316034995324098</v>
       </c>
       <c r="D47">
-        <v>-0.008174803817254567</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01097658400439674</v>
+      </c>
+      <c r="E47">
+        <v>-0.02302743041404267</v>
+      </c>
+      <c r="F47">
+        <v>0.03289423975791338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04814921534950898</v>
+        <v>0.05083797558562739</v>
       </c>
       <c r="C48">
-        <v>-0.004695869817279083</v>
+        <v>-0.00220368926734287</v>
       </c>
       <c r="D48">
-        <v>-0.04325132532821256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04999556477445839</v>
+      </c>
+      <c r="E48">
+        <v>0.004663647509935036</v>
+      </c>
+      <c r="F48">
+        <v>-0.01196131797917808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2014860952396302</v>
+        <v>0.2004255642573957</v>
       </c>
       <c r="C49">
-        <v>-0.02221830828977351</v>
+        <v>-0.01999080217782099</v>
       </c>
       <c r="D49">
-        <v>0.01330939111806491</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005246593151728939</v>
+      </c>
+      <c r="E49">
+        <v>-0.0319835926423146</v>
+      </c>
+      <c r="F49">
+        <v>-0.04801407728612685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04960675030975952</v>
+        <v>0.05175945609340251</v>
       </c>
       <c r="C50">
-        <v>-0.01318835705550625</v>
+        <v>-0.01176662964332678</v>
       </c>
       <c r="D50">
-        <v>-0.0221501875177661</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02328458836618821</v>
+      </c>
+      <c r="E50">
+        <v>-0.03012345886702985</v>
+      </c>
+      <c r="F50">
+        <v>-0.01008031108531776</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558450573316058</v>
+        <v>0.1494007317122602</v>
       </c>
       <c r="C52">
-        <v>-0.02070136046804758</v>
+        <v>-0.01867013669370765</v>
       </c>
       <c r="D52">
-        <v>-0.04632661016445437</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04256512713639211</v>
+      </c>
+      <c r="E52">
+        <v>-0.02304998712161375</v>
+      </c>
+      <c r="F52">
+        <v>-0.0434118661838147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1741979943996885</v>
+        <v>0.1696502404765544</v>
       </c>
       <c r="C53">
-        <v>-0.02093196822350255</v>
+        <v>-0.02139149183852881</v>
       </c>
       <c r="D53">
-        <v>-0.01154217688575635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005826211996154304</v>
+      </c>
+      <c r="E53">
+        <v>-0.0305519842576658</v>
+      </c>
+      <c r="F53">
+        <v>-0.07595246731033273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01678063334118382</v>
+        <v>0.01925437070931052</v>
       </c>
       <c r="C54">
-        <v>-0.01226309033791882</v>
+        <v>-0.01097855499460837</v>
       </c>
       <c r="D54">
-        <v>-0.0279787553148426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03373813527385291</v>
+      </c>
+      <c r="E54">
+        <v>-0.02142503548429093</v>
+      </c>
+      <c r="F54">
+        <v>0.002107394055621342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.117285813257837</v>
+        <v>0.116259312862281</v>
       </c>
       <c r="C55">
-        <v>-0.01865352009236764</v>
+        <v>-0.01870891225468573</v>
       </c>
       <c r="D55">
-        <v>-0.009695444795662436</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008795583456972806</v>
+      </c>
+      <c r="E55">
+        <v>-0.02612615387884661</v>
+      </c>
+      <c r="F55">
+        <v>-0.04794250732549519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1802580881298579</v>
+        <v>0.1757585242147597</v>
       </c>
       <c r="C56">
-        <v>-0.018857230556301</v>
+        <v>-0.01938404050371718</v>
       </c>
       <c r="D56">
-        <v>-0.002907147545175138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002298347486009635</v>
+      </c>
+      <c r="E56">
+        <v>-0.03309907935495515</v>
+      </c>
+      <c r="F56">
+        <v>-0.05502849167154131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04854141224452522</v>
+        <v>0.04609958618249641</v>
       </c>
       <c r="C58">
-        <v>-0.005720746396299445</v>
+        <v>0.0003184451555996385</v>
       </c>
       <c r="D58">
-        <v>-0.06203706476222638</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07475817745638463</v>
+      </c>
+      <c r="E58">
+        <v>-0.03560075093160353</v>
+      </c>
+      <c r="F58">
+        <v>0.03645957237068362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1622564898223789</v>
+        <v>0.1667566710153371</v>
       </c>
       <c r="C59">
-        <v>-0.01508782469516589</v>
+        <v>-0.02309739568451957</v>
       </c>
       <c r="D59">
-        <v>0.2254446293337981</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2183909403481846</v>
+      </c>
+      <c r="E59">
+        <v>0.04946673357520169</v>
+      </c>
+      <c r="F59">
+        <v>0.03893200842003673</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2387858144628039</v>
+        <v>0.2310689013479955</v>
       </c>
       <c r="C60">
-        <v>-0.002757340001345121</v>
+        <v>0.0004273474322118953</v>
       </c>
       <c r="D60">
-        <v>-0.04294516347720201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03952944492779829</v>
+      </c>
+      <c r="E60">
+        <v>-0.006227628343530593</v>
+      </c>
+      <c r="F60">
+        <v>-0.003832729129245436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08420961182163049</v>
+        <v>0.07780533851303922</v>
       </c>
       <c r="C61">
-        <v>-0.01724795702780119</v>
+        <v>-0.01151431026434484</v>
       </c>
       <c r="D61">
-        <v>-0.1050557119271079</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1162446263602152</v>
+      </c>
+      <c r="E61">
+        <v>-0.03836837916498432</v>
+      </c>
+      <c r="F61">
+        <v>-0.007564778610027759</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1711206623658424</v>
+        <v>0.1685598363330858</v>
       </c>
       <c r="C62">
-        <v>-0.02249952503560085</v>
+        <v>-0.02202607769257012</v>
       </c>
       <c r="D62">
-        <v>-0.003483610139256303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005370988610725837</v>
+      </c>
+      <c r="E62">
+        <v>-0.03329921235319606</v>
+      </c>
+      <c r="F62">
+        <v>-0.04101368865529987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04235619171686537</v>
+        <v>0.04625990461458608</v>
       </c>
       <c r="C63">
-        <v>-0.00565043938155311</v>
+        <v>-0.001767239028393381</v>
       </c>
       <c r="D63">
-        <v>-0.04667848958331659</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06040957412911711</v>
+      </c>
+      <c r="E63">
+        <v>-0.02493923195549903</v>
+      </c>
+      <c r="F63">
+        <v>-0.0004631499671249518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1132441869891866</v>
+        <v>0.1107956703722539</v>
       </c>
       <c r="C64">
-        <v>-0.01587829270101985</v>
+        <v>-0.01245302263733305</v>
       </c>
       <c r="D64">
-        <v>-0.02991172482838504</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04246601215657645</v>
+      </c>
+      <c r="E64">
+        <v>-0.02354134881659755</v>
+      </c>
+      <c r="F64">
+        <v>-0.02477366801195455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1434041628735901</v>
+        <v>0.1515898780441726</v>
       </c>
       <c r="C65">
-        <v>-0.03494456211355329</v>
+        <v>-0.03517843909023564</v>
       </c>
       <c r="D65">
-        <v>0.05798207282258122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04776733948129652</v>
+      </c>
+      <c r="E65">
+        <v>-0.005130046720903086</v>
+      </c>
+      <c r="F65">
+        <v>-0.03926862338596662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1365279053863485</v>
+        <v>0.122695723173574</v>
       </c>
       <c r="C66">
-        <v>-0.02203073110561977</v>
+        <v>-0.01457325724317038</v>
       </c>
       <c r="D66">
-        <v>-0.1252740068229766</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1392963268660778</v>
+      </c>
+      <c r="E66">
+        <v>-0.06459920177130558</v>
+      </c>
+      <c r="F66">
+        <v>-0.02629080961130483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06266210410737125</v>
+        <v>0.05598955312406505</v>
       </c>
       <c r="C67">
-        <v>-0.005712721455212907</v>
+        <v>-0.003220094325004462</v>
       </c>
       <c r="D67">
-        <v>-0.05518065971654974</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.056751001316356</v>
+      </c>
+      <c r="E67">
+        <v>-0.01765899813397278</v>
+      </c>
+      <c r="F67">
+        <v>0.03449854527245886</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1069589659386243</v>
+        <v>0.1166704635558081</v>
       </c>
       <c r="C68">
-        <v>-0.02340992617510406</v>
+        <v>-0.03362456997115808</v>
       </c>
       <c r="D68">
-        <v>0.2679651964963731</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2613227856338384</v>
+      </c>
+      <c r="E68">
+        <v>0.0883488260556245</v>
+      </c>
+      <c r="F68">
+        <v>-0.0008091392291338621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03987187970848816</v>
+        <v>0.03873927274241662</v>
       </c>
       <c r="C69">
-        <v>-0.002250830202457646</v>
+        <v>-0.001375508055327385</v>
       </c>
       <c r="D69">
-        <v>-0.00599168527785454</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0083035051264194</v>
+      </c>
+      <c r="E69">
+        <v>-0.02403908198032111</v>
+      </c>
+      <c r="F69">
+        <v>0.001250903179859377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06586775411289991</v>
+        <v>0.06705125298331249</v>
       </c>
       <c r="C70">
-        <v>0.02456476219901547</v>
+        <v>0.02696260713622277</v>
       </c>
       <c r="D70">
-        <v>-0.001662629109912755</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02525975910871883</v>
+      </c>
+      <c r="E70">
+        <v>0.031876568900808</v>
+      </c>
+      <c r="F70">
+        <v>0.1812919128642907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1255204827765034</v>
+        <v>0.1368040545902212</v>
       </c>
       <c r="C71">
-        <v>-0.02747112484269596</v>
+        <v>-0.03822786263825951</v>
       </c>
       <c r="D71">
-        <v>0.2837276362735843</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2714584010633724</v>
+      </c>
+      <c r="E71">
+        <v>0.09799013315575915</v>
+      </c>
+      <c r="F71">
+        <v>-0.006764278999369903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1383510721887535</v>
+        <v>0.1436982309099493</v>
       </c>
       <c r="C72">
-        <v>-0.02803280965480533</v>
+        <v>-0.02813920341909078</v>
       </c>
       <c r="D72">
-        <v>-0.004708344035190287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004400032674748548</v>
+      </c>
+      <c r="E72">
+        <v>-0.03732793253203781</v>
+      </c>
+      <c r="F72">
+        <v>-0.02896742602070818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2057728650865236</v>
+        <v>0.2044125823794831</v>
       </c>
       <c r="C73">
-        <v>-0.01736370642622793</v>
+        <v>-0.01357030962572629</v>
       </c>
       <c r="D73">
-        <v>-0.0107626870495643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0179054637806712</v>
+      </c>
+      <c r="E73">
+        <v>-0.06661480051434435</v>
+      </c>
+      <c r="F73">
+        <v>-0.04194516711202216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09317097750145238</v>
+        <v>0.09458346071976095</v>
       </c>
       <c r="C74">
-        <v>-0.01455133094485053</v>
+        <v>-0.01409257446919287</v>
       </c>
       <c r="D74">
-        <v>-0.01773472877599231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01685619973045253</v>
+      </c>
+      <c r="E74">
+        <v>-0.04438257271032314</v>
+      </c>
+      <c r="F74">
+        <v>-0.05361687458292177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1339827903689171</v>
+        <v>0.1264048959667503</v>
       </c>
       <c r="C75">
-        <v>-0.03104213489889833</v>
+        <v>-0.02952694879875412</v>
       </c>
       <c r="D75">
-        <v>-0.02793925514253959</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02925303838185908</v>
+      </c>
+      <c r="E75">
+        <v>-0.05735842440909603</v>
+      </c>
+      <c r="F75">
+        <v>-0.02114247461781316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08221627149614749</v>
+        <v>0.09017361462590266</v>
       </c>
       <c r="C77">
-        <v>-0.01466134072289101</v>
+        <v>-0.00852152963335933</v>
       </c>
       <c r="D77">
-        <v>-0.1024895885421418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1143405546299877</v>
+      </c>
+      <c r="E77">
+        <v>-0.04511359258656626</v>
+      </c>
+      <c r="F77">
+        <v>-0.03323666626695972</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09945963404262424</v>
+        <v>0.1007710279840282</v>
       </c>
       <c r="C78">
-        <v>-0.04426022670060097</v>
+        <v>-0.03883838990143301</v>
       </c>
       <c r="D78">
-        <v>-0.1083641713494468</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1110665429596449</v>
+      </c>
+      <c r="E78">
+        <v>-0.07605029310733809</v>
+      </c>
+      <c r="F78">
+        <v>-0.05273368365544631</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1647949803342748</v>
+        <v>0.1630857632897261</v>
       </c>
       <c r="C79">
-        <v>-0.02559943165571057</v>
+        <v>-0.02446178098530898</v>
       </c>
       <c r="D79">
-        <v>-0.01086864974694127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01310810189045988</v>
+      </c>
+      <c r="E79">
+        <v>-0.04426419444577383</v>
+      </c>
+      <c r="F79">
+        <v>-0.01313812863453294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08069137352147088</v>
+        <v>0.0792897782967789</v>
       </c>
       <c r="C80">
-        <v>-0.001250636159869922</v>
+        <v>0.0006887080567705958</v>
       </c>
       <c r="D80">
-        <v>-0.05062970320302326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05373225714160896</v>
+      </c>
+      <c r="E80">
+        <v>-0.03238048300226921</v>
+      </c>
+      <c r="F80">
+        <v>0.02523179679102512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1204292715630967</v>
+        <v>0.1170759403115243</v>
       </c>
       <c r="C81">
-        <v>-0.03296663890816391</v>
+        <v>-0.03301428404843237</v>
       </c>
       <c r="D81">
-        <v>-0.02053074181786822</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01443332665105351</v>
+      </c>
+      <c r="E81">
+        <v>-0.055242346134667</v>
+      </c>
+      <c r="F81">
+        <v>-0.01873465418841251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1657949599098088</v>
+        <v>0.165308755323055</v>
       </c>
       <c r="C82">
-        <v>-0.02631909750637035</v>
+        <v>-0.0268531150568463</v>
       </c>
       <c r="D82">
-        <v>-0.01238821894236646</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002648313307340955</v>
+      </c>
+      <c r="E82">
+        <v>-0.02856594576020646</v>
+      </c>
+      <c r="F82">
+        <v>-0.08212993113803423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06371131939644435</v>
+        <v>0.0575186302120914</v>
       </c>
       <c r="C83">
-        <v>-0.00549594868243105</v>
+        <v>-0.00329749521580048</v>
       </c>
       <c r="D83">
-        <v>-0.04196755738608061</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04847640210204856</v>
+      </c>
+      <c r="E83">
+        <v>-0.001248103806297625</v>
+      </c>
+      <c r="F83">
+        <v>0.03552808445989302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.062362905159575</v>
+        <v>0.05691389908343071</v>
       </c>
       <c r="C84">
-        <v>-0.01399317806793211</v>
+        <v>-0.01088075250389798</v>
       </c>
       <c r="D84">
-        <v>-0.06743505471705602</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0721182681255932</v>
+      </c>
+      <c r="E84">
+        <v>-0.01397592680003716</v>
+      </c>
+      <c r="F84">
+        <v>-0.01428059041339825</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1381490795355922</v>
+        <v>0.134182018684257</v>
       </c>
       <c r="C85">
-        <v>-0.02969260291101913</v>
+        <v>-0.02942189450320118</v>
       </c>
       <c r="D85">
-        <v>-0.01281967219484527</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009817772127806197</v>
+      </c>
+      <c r="E85">
+        <v>-0.03668562944513938</v>
+      </c>
+      <c r="F85">
+        <v>-0.0481347829694005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1019636847480813</v>
+        <v>0.09369554730145115</v>
       </c>
       <c r="C86">
-        <v>0.002678581914173678</v>
+        <v>0.00549469442990963</v>
       </c>
       <c r="D86">
-        <v>-0.007791881418737202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05151400776803667</v>
+      </c>
+      <c r="E86">
+        <v>-0.2184760945794241</v>
+      </c>
+      <c r="F86">
+        <v>0.8999189002738111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09839442917233455</v>
+        <v>0.09386869855581204</v>
       </c>
       <c r="C87">
-        <v>-0.02852782422935539</v>
+        <v>-0.01968105603969929</v>
       </c>
       <c r="D87">
-        <v>-0.07194559296231978</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09600489882944128</v>
+      </c>
+      <c r="E87">
+        <v>0.0515169409837459</v>
+      </c>
+      <c r="F87">
+        <v>-0.05137596118813637</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06056475215113481</v>
+        <v>0.0604411290369555</v>
       </c>
       <c r="C88">
-        <v>-0.005300171771083941</v>
+        <v>-0.00294031676994812</v>
       </c>
       <c r="D88">
-        <v>-0.05462250865328218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05003167777453445</v>
+      </c>
+      <c r="E88">
+        <v>-0.02472324531241282</v>
+      </c>
+      <c r="F88">
+        <v>-0.01494742095989752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1180170626619953</v>
+        <v>0.1271895386119457</v>
       </c>
       <c r="C89">
-        <v>-0.004372131196257035</v>
+        <v>-0.01357722079484074</v>
       </c>
       <c r="D89">
-        <v>0.2507932075464927</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2447754928820608</v>
+      </c>
+      <c r="E89">
+        <v>0.09237853847283017</v>
+      </c>
+      <c r="F89">
+        <v>0.008203803724939248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1379516099038671</v>
+        <v>0.1513096323533068</v>
       </c>
       <c r="C90">
-        <v>-0.02367058481231519</v>
+        <v>-0.0349012320724596</v>
       </c>
       <c r="D90">
-        <v>0.2683627341167117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2684596112851736</v>
+      </c>
+      <c r="E90">
+        <v>0.1139861852639087</v>
+      </c>
+      <c r="F90">
+        <v>0.008780815248566063</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1206721298548126</v>
+        <v>0.1204935622010094</v>
       </c>
       <c r="C91">
-        <v>-0.02052800125881454</v>
+        <v>-0.02102190462336366</v>
       </c>
       <c r="D91">
-        <v>0.01063487361127049</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0160685487255458</v>
+      </c>
+      <c r="E91">
+        <v>-0.05373276371899884</v>
+      </c>
+      <c r="F91">
+        <v>0.0008426106993568648</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.13947598759731</v>
+        <v>0.147581640627087</v>
       </c>
       <c r="C92">
-        <v>-0.01465972988300408</v>
+        <v>-0.02593227272584814</v>
       </c>
       <c r="D92">
-        <v>0.3038707945977762</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2910288966485471</v>
+      </c>
+      <c r="E92">
+        <v>0.1015187222623806</v>
+      </c>
+      <c r="F92">
+        <v>0.02041821033939826</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1409259339913717</v>
+        <v>0.1526338636113857</v>
       </c>
       <c r="C93">
-        <v>-0.02007205726512182</v>
+        <v>-0.02990992660709261</v>
       </c>
       <c r="D93">
-        <v>0.2692527248960731</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.264780009450815</v>
+      </c>
+      <c r="E93">
+        <v>0.07624606117977152</v>
+      </c>
+      <c r="F93">
+        <v>-0.002211437556249668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1341645344624257</v>
+        <v>0.1271309345516283</v>
       </c>
       <c r="C94">
-        <v>-0.02759241751440171</v>
+        <v>-0.02573455421786586</v>
       </c>
       <c r="D94">
-        <v>-0.04141531317372956</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03997123954995426</v>
+      </c>
+      <c r="E94">
+        <v>-0.05719806812856684</v>
+      </c>
+      <c r="F94">
+        <v>-0.03257640156828847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1247514560187511</v>
+        <v>0.1278512161582465</v>
       </c>
       <c r="C95">
-        <v>-0.009707490281523927</v>
+        <v>-0.003649761805724528</v>
       </c>
       <c r="D95">
-        <v>-0.08736910784280802</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09898332665493516</v>
+      </c>
+      <c r="E95">
+        <v>-0.05472320178272448</v>
+      </c>
+      <c r="F95">
+        <v>-0.0009783102864251206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1224978869320413</v>
+        <v>0.1159361502956219</v>
       </c>
       <c r="C96">
-        <v>0.9867220598271672</v>
+        <v>0.9864101424955742</v>
       </c>
       <c r="D96">
-        <v>0.01489294273280409</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05129635684281188</v>
+      </c>
+      <c r="E96">
+        <v>-0.05230769913164336</v>
+      </c>
+      <c r="F96">
+        <v>-0.04203661858244444</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1951676160222616</v>
+        <v>0.195939011358628</v>
       </c>
       <c r="C97">
-        <v>0.004389774000165476</v>
+        <v>0.005231053711531208</v>
       </c>
       <c r="D97">
-        <v>0.01506551535743006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02150928287977007</v>
+      </c>
+      <c r="E97">
+        <v>-0.02056047052814552</v>
+      </c>
+      <c r="F97">
+        <v>0.1154106008709521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.199684487803838</v>
+        <v>0.2059823739755411</v>
       </c>
       <c r="C98">
-        <v>-0.01191043867972671</v>
+        <v>-0.007794050777558597</v>
       </c>
       <c r="D98">
-        <v>-0.01104513844336067</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01468677581800363</v>
+      </c>
+      <c r="E98">
+        <v>0.07662655009256919</v>
+      </c>
+      <c r="F98">
+        <v>0.09134525555407509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05496479165998779</v>
+        <v>0.05556252065699417</v>
       </c>
       <c r="C99">
-        <v>0.002173898829321801</v>
+        <v>0.004070247516525328</v>
       </c>
       <c r="D99">
-        <v>-0.02838526845273005</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03859510813592879</v>
+      </c>
+      <c r="E99">
+        <v>-0.02151187124666702</v>
+      </c>
+      <c r="F99">
+        <v>-0.004169198368487804</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1424412118287785</v>
+        <v>0.1291258465307622</v>
       </c>
       <c r="C100">
-        <v>0.03852155355921479</v>
+        <v>0.05127571609058008</v>
       </c>
       <c r="D100">
-        <v>-0.3990753129264998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3526493799662828</v>
+      </c>
+      <c r="E100">
+        <v>0.8864443486265877</v>
+      </c>
+      <c r="F100">
+        <v>0.144088921982975</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02505595600075612</v>
+        <v>0.02852366189058167</v>
       </c>
       <c r="C101">
-        <v>-0.009551872774371648</v>
+        <v>-0.008762057262625382</v>
       </c>
       <c r="D101">
-        <v>-0.02488702441963079</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03065995330950996</v>
+      </c>
+      <c r="E101">
+        <v>-0.01259139652759583</v>
+      </c>
+      <c r="F101">
+        <v>0.01425018057480421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
